--- a/Excels/TestEnum.xlsx
+++ b/Excels/TestEnum.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowWidth="16425" windowHeight="11790"/>
   </bookViews>
   <sheets>
-    <sheet name="TestEnum" sheetId="1" r:id="rId3"/>
+    <sheet name="TestEnum" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -90,54 +92,378 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="7">
-    <font>
-      <sz val="11.0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="SimSun"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -145,46 +471,605 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
-      <alignment wrapText="false" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
-      <alignment wrapText="false" horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment wrapText="false" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" hidden="false" customWidth="true"/>
-    <col min="2" max="2" width="12.0" hidden="false" customWidth="true"/>
-    <col min="3" max="3" width="13.42578125" hidden="false" customWidth="true"/>
-    <col min="4" max="4" width="10.5703125" hidden="false" customWidth="true"/>
-    <col min="5" max="5" width="18.5703125" hidden="false" customWidth="true"/>
-    <col min="6" max="6" width="15.140625" hidden="false" customWidth="true"/>
-    <col min="7" max="7" width="27.140625" hidden="false" customWidth="true"/>
-    <col min="8" max="8" width="10.5703125" hidden="false" customWidth="true"/>
+    <col min="1" max="1" width="10.5666666666667" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="13.425" customWidth="1"/>
+    <col min="4" max="4" width="10.5666666666667" customWidth="1"/>
+    <col min="5" max="5" width="18.5666666666667" customWidth="1"/>
+    <col min="6" max="6" width="15.1416666666667" customWidth="1"/>
+    <col min="7" max="7" width="43.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -196,9 +1081,8 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -220,9 +1104,8 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -244,9 +1127,8 @@
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -268,15 +1150,14 @@
       <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" s="2"/>
-      <c r="B5" s="1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>1.0</v>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>20</v>
@@ -290,10 +1171,9 @@
       <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="4"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excels/TestEnum.xlsx
+++ b/Excels/TestEnum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="11790"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="TestEnum" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -40,6 +40,9 @@
     <t>TestEnumDic</t>
   </si>
   <si>
+    <t>TestString</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>dictionary&lt;Test.TestEnum,int&gt;</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>编号</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>测试枚举字典</t>
   </si>
   <si>
+    <t>测试带换行的字符串</t>
+  </si>
+  <si>
     <t>Test3</t>
   </si>
   <si>
@@ -86,6 +95,9 @@
   </si>
   <si>
     <t>{1#1}|{2#2}|{3#3}</t>
+  </si>
+  <si>
+    <t>测试带换行的字符串1\n测试带换行的字符串2\n测试带换行的字符串3" '</t>
   </si>
 </sst>
 </file>
@@ -93,9 +105,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -119,26 +131,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -147,6 +188,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -154,24 +212,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,14 +260,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,21 +268,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -256,14 +276,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,187 +290,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +481,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,15 +510,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,24 +531,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +545,24 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,164 +581,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,13 +1064,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.5666666666667" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -1067,6 +1079,7 @@
     <col min="5" max="5" width="18.5666666666667" customWidth="1"/>
     <col min="6" max="6" width="15.1416666666667" customWidth="1"/>
     <col min="7" max="7" width="43.875" customWidth="1"/>
+    <col min="8" max="8" width="71.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1082,7 +1095,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,54 +1117,63 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>1</v>
@@ -1160,16 +1182,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/TestEnum.xlsx
+++ b/Excels/TestEnum.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestEnum" sheetId="1" r:id="rId1"/>
+    <sheet name="TestSheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -106,9 +107,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -131,6 +132,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -151,78 +174,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,9 +190,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +236,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -258,8 +252,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -269,13 +277,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,13 +291,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +411,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,157 +459,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,16 +486,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,17 +515,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,24 +568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -586,148 +587,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,8 +1067,8 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1201,4 +1202,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>